--- a/pred_ohlcv/54_21/2020-01-22 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 XSR ohlcv.xlsx
@@ -1666,7 +1666,7 @@
         <v>-1916042.6705</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3333747.5336</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3725720.5334</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3929139.6889</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3300513.883595537</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3482390.571895537</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3107876.032295537</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2886395.806495537</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3220778.142095537</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3201106.616195537</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3500163.831495537</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3107509.217995537</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3960076.195995537</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3497667.228695537</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3844856.544695537</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-7215825.91062534</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-7224613.942025341</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-6942111.717125341</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-7052610.853503493</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-7051683.363903493</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-7180207.532803493</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7224467.277603492</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-7378681.251403492</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-7257014.634603492</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-9203419.517203493</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-8963480.138803493</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-9122872.821203493</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-8702851.467203492</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7739338.019003496</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7491376.848503496</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-7657796.259603496</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-7165294.521003496</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-6903091.909803496</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-7001282.286303496</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-6805200.079003496</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-6609939.997619683</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-6336539.048104546</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-6233258.650404546</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-7093826.262604547</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-7105186.219004546</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-7285351.254804546</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-7101771.050204546</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-6684280.462604546</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-6455507.620104546</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-6455740.620104546</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-6206762.958904546</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-6375097.530104546</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-6365011.530104546</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-6599431.437904546</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-6366905.279504546</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-6164807.320504546</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-5907021.959104546</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-5798139.177204548</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-5650745.531004548</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 XSR ohlcv.xlsx
@@ -3018,7 +3018,7 @@
         <v>-4041223.0143</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3482390.571895537</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3107876.032295537</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2886395.806495537</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3220778.142095537</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3201106.616195537</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3500163.831495537</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3107509.217995537</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3960076.195995537</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3497667.228695537</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3510246.895695537</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3844856.544695537</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4660266.054695536</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-7215825.91062534</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-7224613.942025341</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-6942111.717125341</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-7052610.853503493</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-7051683.363903493</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-7180207.532803493</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-7224467.277603492</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-7378681.251403492</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-7257014.634603492</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7447235.101503492</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-9203419.517203493</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-8963480.138803493</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-9122872.821203493</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-8702851.467203492</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7834386.712603495</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-7836864.084803495</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-7963908.363403494</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7743339.725003495</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7626946.833403495</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7899138.204903495</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7899138.204903495</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7739338.019003496</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7491376.848503496</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-7657796.259603496</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-7537256.427303496</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-7165294.521003496</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-7001282.286303496</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-6805200.079003496</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-6381382.129719684</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-6230251.756804546</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-7105186.219004546</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-7101771.050204546</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-6684280.462604546</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-6455507.620104546</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-6455740.620104546</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-6206762.958904546</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-6486337.912204546</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-6375097.530104546</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-6365011.530104546</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-6164807.320504546</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-5907021.959104546</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-5777174.924204547</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-5667790.398704547</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
